--- a/data_processed/20250815/USDSOFRCSA_USD_20250815.xlsx
+++ b/data_processed/20250815/USDSOFRCSA_USD_20250815.xlsx
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,87 +690,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2Y</t>
+          <t>5M</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SOFROIS</t>
+          <t>SQF26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OIS</t>
+          <t>FUTURE</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.035166</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3Y</t>
+          <t>0M</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SOFROIS</t>
+          <t>SQQ25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OIS</t>
+          <t>FUTURE</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.034349</v>
+        <v>95.78749999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5Y</t>
+          <t>2M</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SOFROIS</t>
+          <t>SQV25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OIS</t>
+          <t>FUTURE</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.034898</v>
+        <v>96.01000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10Y</t>
+          <t>3M</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SOFROIS</t>
+          <t>SQX25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OIS</t>
+          <t>FUTURE</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.038084</v>
+        <v>96.125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20Y</t>
+          <t>2Y</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -784,26 +784,106 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.041374</v>
+        <v>0.035166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SOFROIS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.034349</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SOFROIS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.034898</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SOFROIS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.038084</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SOFROIS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.041374</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>30Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>SOFROIS</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>OIS</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D18" t="n">
         <v>0.041089</v>
       </c>
     </row>
